--- a/加工付款单批量导入模板.xlsx
+++ b/加工付款单批量导入模板.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陶祎祎\IdeaProjects\oa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AC8D59-3367-4C1E-8E94-755701A550F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A4E63F-0ACE-497D-BB6B-B9552FF742ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15034" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,36 +20,16 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>加工合同编号</t>
   </si>
   <si>
-    <t>付款月份</t>
-  </si>
-  <si>
-    <t>加工单价(元/吨)</t>
-  </si>
-  <si>
-    <t>加工总量(吨)</t>
-  </si>
-  <si>
-    <t>总费用金额</t>
-  </si>
-  <si>
     <t>2023-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,15 +54,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JG测试</t>
+    <t>加工单价(元/吨)（只可保留2位小数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总费用金额（只可保留2位小数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加工总量(吨)（只可保留3位小数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款月份（格式为xxxx-xx）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -90,7 +74,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +87,22 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -126,9 +126,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -412,139 +422,139 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.0703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.0703125" customWidth="1"/>
+    <col min="2" max="2" width="25.640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
         <v>1000</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <f>C2*D2</f>
         <v>10000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
         <v>1000</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>10</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <f t="shared" ref="E3:E7" si="0">C3*D3</f>
         <v>10000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
         <v>1000</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>20</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4">
         <v>1000</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>10</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4">
         <v>1000</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>10</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="4">
         <v>10</v>
       </c>
-      <c r="C7">
-        <v>1000</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>

--- a/加工付款单批量导入模板.xlsx
+++ b/加工付款单批量导入模板.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陶祎祎\IdeaProjects\oa-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陶祎祎\Documents\WeChat Files\wxid_guhg739bsw8421\FileStorage\File\2023-02\导入模版\导入模版\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A4E63F-0ACE-497D-BB6B-B9552FF742ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A42685-C3B3-477A-B9D9-B8D3A442BC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15034" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,70 +16,76 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>加工合同编号</t>
   </si>
   <si>
+    <t>付款月份（格式为xxxx-xx）</t>
+  </si>
+  <si>
+    <t>加工单价(元/吨)</t>
+  </si>
+  <si>
+    <t>加工总量(吨)</t>
+  </si>
+  <si>
+    <t>总费用金额</t>
+  </si>
+  <si>
+    <t>JG20235154/样例，导入前删除本行</t>
+  </si>
+  <si>
+    <t>模版填写说明：
+1.本列不能删除，且不用填写任何信息；
+2.第一行表头信息不得修改、调整、删除等；
+3.不能随意更改单元格格式，否则会导致导入失败。
+4.日期格式必须用“-”分割，如2023-01-01；
+5.金额最多保留两位小数，同时不能出现中文，如不能填“两万”；
+6.【加工总量】最多只能保留小数点后三位
+7.【加工合同编号】必须是加工单中已有的编号，否则导入失败</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>2023-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加工单价(元/吨)（只可保留2位小数）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总费用金额（只可保留2位小数）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加工总量(吨)（只可保留3位小数）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款月份（格式为xxxx-xx）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.000_ "/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -90,8 +96,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -99,22 +104,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -122,22 +134,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -199,7 +250,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -234,7 +285,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -409,159 +460,70 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.149999999999999" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.0703125" customWidth="1"/>
-    <col min="2" max="2" width="25.640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.0703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="306" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="40.299999999999997" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="D2" s="3">
         <v>1000</v>
       </c>
-      <c r="D2" s="4">
-        <v>10</v>
-      </c>
       <c r="E2" s="4">
-        <f>C2*D2</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1000</v>
-      </c>
-      <c r="D3" s="4">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4">
-        <f t="shared" ref="E3:E7" si="0">C3*D3</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1000</v>
-      </c>
-      <c r="D4" s="4">
-        <v>20</v>
-      </c>
-      <c r="E4" s="4">
-        <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1000</v>
-      </c>
-      <c r="D5" s="4">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4">
-        <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1000</v>
-      </c>
-      <c r="D6" s="4">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4">
-        <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
-        <v>3</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1000</v>
-      </c>
-      <c r="D7" s="4">
-        <v>10</v>
-      </c>
-      <c r="E7" s="4">
-        <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F2" s="3">
+        <f>D2*E2</f>
+        <v>10200</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="CaHnloXu9RWWcX6n+Gz3+uXDfsfAHqiynA08MJ+ZXWpCzth3kZZQtRB0pokkuACg+vZFyeT7l0SUNxfpcuTD8A==" saltValue="UBwgr6sU9O/VKmassogVyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>